--- a/data/case1/5/Plm1_2.xlsx
+++ b/data/case1/5/Plm1_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.47247904968428145</v>
+        <v>-0.28991759397096928</v>
       </c>
       <c r="B1" s="0">
-        <v>0.47066300641610326</v>
+        <v>0.28927187094517137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.28929269138759395</v>
+        <v>-0.24316319624480798</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28545623704485124</v>
+        <v>0.24062727707544695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.1581866229667277</v>
+        <v>-0.13767861566714856</v>
       </c>
       <c r="B3" s="0">
-        <v>0.1572713414475615</v>
+        <v>0.13700057079089234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14527134166441869</v>
+        <v>-0.12500057094321804</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14445316434578359</v>
+        <v>0.12440943515372638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13845316523964613</v>
+        <v>-0.1184094357523886</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13681358182696268</v>
+        <v>0.11724059034145196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035841316544781954</v>
+        <v>-0.094220738895226752</v>
       </c>
       <c r="B6" s="0">
-        <v>0.035824926954203473</v>
+        <v>0.094087377471988365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.015824928025436336</v>
+        <v>-0.074087378189778619</v>
       </c>
       <c r="B7" s="0">
-        <v>0.015813747203141659</v>
+        <v>0.073777011364892786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0041862517244775077</v>
+        <v>0.016755344651345538</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0042014063318625006</v>
+        <v>-0.016800783441979661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.010201405413256204</v>
+        <v>0.022800782821216892</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.010227183665263873</v>
+        <v>-0.022869231083374686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.016227182749588565</v>
+        <v>0.028869230465851103</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.016227002312255934</v>
+        <v>-0.028884379424326312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.020727001413295199</v>
+        <v>-0.051473974460392924</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.020745287071473939</v>
+        <v>0.051395743756597057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.010200960853658625</v>
+        <v>-0.045395744376957037</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010190640836033271</v>
+        <v>0.045150911295657625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0041906417518262629</v>
+        <v>-0.039150911925795562</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0041896088822168664</v>
+        <v>0.039084417618527212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0078103901368145046</v>
+        <v>-0.027084418295199697</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0078179934233668646</v>
+        <v>0.027052486905003725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013817992508609045</v>
+        <v>-0.021052487540013765</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.013835809209458816</v>
+        <v>0.02102738081602773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026721353263106</v>
+        <v>-0.015027381452960231</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003891710949624</v>
+        <v>0.015004165058483565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090038926270059605</v>
+        <v>-0.0090041656980339724</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990506752781</v>
+        <v>0.0089999993379983323</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.17137031591746066</v>
+        <v>-0.036108675299537651</v>
       </c>
       <c r="B18" s="0">
-        <v>0.17096716090649977</v>
+        <v>0.036096478759528594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.091865578148321969</v>
+        <v>-0.02709647935202808</v>
       </c>
       <c r="B19" s="0">
-        <v>0.090734227251930921</v>
+        <v>0.027013363901156495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.081734228164051181</v>
+        <v>-0.018013364498985496</v>
       </c>
       <c r="B20" s="0">
-        <v>0.081480876234117261</v>
+        <v>0.018004191738073771</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.072480877152919287</v>
+        <v>-0.0090041923366772636</v>
       </c>
       <c r="B21" s="0">
-        <v>0.072123500088313808</v>
+        <v>0.0089999994008653772</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.11826961498447197</v>
+        <v>-0.093948662016179796</v>
       </c>
       <c r="B22" s="0">
-        <v>0.11769610167034195</v>
+        <v>0.093635481875471882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.10869610258712559</v>
+        <v>-0.084635482488764957</v>
       </c>
       <c r="B23" s="0">
-        <v>0.10771234283490738</v>
+        <v>0.084126928463734707</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.065712344130359313</v>
+        <v>-0.042126929326066431</v>
       </c>
       <c r="B24" s="0">
-        <v>0.065306658736506762</v>
+        <v>0.041999999132922738</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.09497226620027277</v>
+        <v>-0.094933216614194293</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094726497016946354</v>
+        <v>0.094689180798262385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088726497936647775</v>
+        <v>-0.088689181413450058</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088408197335944294</v>
+        <v>0.08837406808819992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082408198260500498</v>
+        <v>-0.082374068706487336</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081309957492880613</v>
+        <v>0.081292344797032179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.07530995843739241</v>
+        <v>-0.075292345429179619</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074549232661927256</v>
+        <v>0.074542922762990571</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062549233684503491</v>
+        <v>-0.062542923447633569</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062173307717729998</v>
+        <v>0.062171793978830436</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042173308833854506</v>
+        <v>-0.042171794726257428</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018814213083289</v>
+        <v>0.042019533908967066</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018815284009179</v>
+        <v>-0.027019534626337105</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000471409918347</v>
+        <v>0.027000591222321901</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060004725476590082</v>
+        <v>-0.0060005919844288158</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999025100955</v>
+        <v>0.0059999993469173063</v>
       </c>
     </row>
   </sheetData>
